--- a/data/y_train.xlsx
+++ b/data/y_train.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E516"/>
+  <dimension ref="A1:E515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -440,12 +440,12 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -457,12 +457,12 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -474,15 +474,15 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -576,12 +576,12 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -666,10 +666,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -780,15 +780,15 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -831,12 +831,12 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -921,7 +921,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1125,7 +1125,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1154,12 +1154,12 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1210,10 +1210,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1273,12 +1273,12 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1409,12 +1409,12 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1426,15 +1426,15 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1494,15 +1494,15 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1664,12 +1664,12 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1681,15 +1681,15 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1732,12 +1732,12 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1749,12 +1749,12 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1766,15 +1766,15 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1834,15 +1834,15 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1868,12 +1868,12 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1885,15 +1885,15 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1941,7 +1941,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1975,10 +1975,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2162,7 +2162,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2349,10 +2349,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2463,15 +2463,15 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2497,15 +2497,15 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2531,12 +2531,12 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2548,15 +2548,15 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2616,15 +2616,15 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2706,10 +2706,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2769,15 +2769,15 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2820,12 +2820,12 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2837,15 +2837,15 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3080,10 +3080,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -3225,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3256,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3318,10 +3318,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3364,15 +3364,15 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3505,13 +3505,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3528,18 +3528,18 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3551,12 +3551,12 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3590,7 +3590,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3670,15 +3670,15 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3823,12 +3823,12 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3840,12 +3840,12 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3891,12 +3891,12 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3908,15 +3908,15 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4015,7 +4015,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -4027,15 +4027,15 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -4061,15 +4061,15 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4117,7 +4117,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -4129,12 +4129,12 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4270,7 +4270,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4304,7 +4304,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4474,10 +4474,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4520,15 +4520,15 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4593,10 +4593,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4758,12 +4758,12 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4823,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4848,7 +4848,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4882,10 +4882,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4962,15 +4962,15 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -5001,10 +5001,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -5030,12 +5030,12 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -5047,12 +5047,12 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -5064,15 +5064,15 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -5166,12 +5166,12 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -5183,12 +5183,12 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5251,12 +5251,12 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5341,7 +5341,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5375,7 +5375,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -5438,12 +5438,12 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5497,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -5511,13 +5511,13 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B302">
         <v>0</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -5540,12 +5540,12 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5613,10 +5613,10 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5681,7 +5681,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5783,10 +5783,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -5812,18 +5812,18 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B320">
         <v>0</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5880,12 +5880,12 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -5897,12 +5897,12 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -5914,12 +5914,12 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -5931,18 +5931,18 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B327">
         <v>0</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6055,7 +6055,7 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -6084,12 +6084,12 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -6101,15 +6101,15 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -6186,15 +6186,15 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -6254,15 +6254,15 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6327,7 +6327,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -6339,15 +6339,15 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -6395,10 +6395,10 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -6458,12 +6458,12 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -6475,15 +6475,15 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6701,7 +6701,7 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -6713,12 +6713,12 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6730,12 +6730,12 @@
         <v>0</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6747,15 +6747,15 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6888,7 +6888,7 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7007,10 +7007,10 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7098,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7112,10 +7112,10 @@
         <v>0</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7160,7 +7160,7 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7211,7 +7211,7 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7313,7 +7313,7 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7364,7 +7364,7 @@
     </row>
     <row r="411" spans="1:5">
       <c r="A411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -7376,12 +7376,12 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="E414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -7478,12 +7478,12 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7517,10 +7517,10 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -7580,15 +7580,15 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:5">
       <c r="A424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -7631,12 +7631,12 @@
         <v>0</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -7648,12 +7648,12 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -7665,12 +7665,12 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -7682,15 +7682,15 @@
         <v>0</v>
       </c>
       <c r="E429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -7704,10 +7704,10 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -7733,12 +7733,12 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7750,12 +7750,12 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -7818,12 +7818,12 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -7835,12 +7835,12 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -7937,15 +7937,15 @@
         <v>0</v>
       </c>
       <c r="E444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8010,7 +8010,7 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8044,7 +8044,7 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -8056,12 +8056,12 @@
         <v>0</v>
       </c>
       <c r="E451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8095,7 +8095,7 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -8107,12 +8107,12 @@
         <v>0</v>
       </c>
       <c r="E454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -8124,12 +8124,12 @@
         <v>0</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -8141,15 +8141,15 @@
         <v>0</v>
       </c>
       <c r="E456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="B461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -8226,15 +8226,15 @@
         <v>0</v>
       </c>
       <c r="E461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -8299,10 +8299,10 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8339,24 +8339,24 @@
         <v>0</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B469">
         <v>0</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -8367,10 +8367,10 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8435,7 +8435,7 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -8447,12 +8447,12 @@
         <v>0</v>
       </c>
       <c r="E474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -8464,12 +8464,12 @@
         <v>0</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -8481,15 +8481,15 @@
         <v>0</v>
       </c>
       <c r="E476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -8520,10 +8520,10 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -8583,12 +8583,12 @@
         <v>0</v>
       </c>
       <c r="E482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="B484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -8634,12 +8634,12 @@
         <v>0</v>
       </c>
       <c r="E485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="E486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8673,10 +8673,10 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="489" spans="1:5">
       <c r="A489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -8753,12 +8753,12 @@
         <v>0</v>
       </c>
       <c r="E492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8792,7 +8792,7 @@
     </row>
     <row r="495" spans="1:5">
       <c r="A495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -8804,12 +8804,12 @@
         <v>0</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -8821,12 +8821,12 @@
         <v>0</v>
       </c>
       <c r="E496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -8838,15 +8838,15 @@
         <v>0</v>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -8860,10 +8860,10 @@
     </row>
     <row r="499" spans="1:5">
       <c r="A499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -8894,10 +8894,10 @@
     </row>
     <row r="501" spans="1:5">
       <c r="A501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -8911,10 +8911,10 @@
     </row>
     <row r="502" spans="1:5">
       <c r="A502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="503" spans="1:5">
       <c r="A503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -8962,7 +8962,7 @@
     </row>
     <row r="505" spans="1:5">
       <c r="A505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -8974,12 +8974,12 @@
         <v>0</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -8991,12 +8991,12 @@
         <v>0</v>
       </c>
       <c r="E506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B507">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9030,10 +9030,10 @@
     </row>
     <row r="509" spans="1:5">
       <c r="A509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -9050,10 +9050,10 @@
         <v>0</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D510">
         <v>0</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="511" spans="1:5">
       <c r="A511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B511">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9098,10 +9098,10 @@
     </row>
     <row r="513" spans="1:5">
       <c r="A513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="E514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -9144,23 +9144,6 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516">
-        <v>0</v>
-      </c>
-      <c r="B516">
-        <v>1</v>
-      </c>
-      <c r="C516">
-        <v>0</v>
-      </c>
-      <c r="D516">
-        <v>0</v>
-      </c>
-      <c r="E516">
         <v>0</v>
       </c>
     </row>

--- a/data/y_train.xlsx
+++ b/data/y_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="5">
   <si>
     <t>Failure_Category</t>
   </si>
@@ -28,10 +28,7 @@
     <t xml:space="preserve">Aircraft </t>
   </si>
   <si>
-    <t xml:space="preserve">Not determined </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizational issues </t>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -657,7 +654,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1222,7 +1219,7 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:1">
@@ -1697,7 +1694,7 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:1">
